--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6653603696731</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H2">
-        <v>10.6653603696731</v>
+        <v>132.227953</v>
       </c>
       <c r="I2">
-        <v>0.01813289983737844</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J2">
-        <v>0.01813289983737844</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.81110613639534</v>
+        <v>0.101297</v>
       </c>
       <c r="N2">
-        <v>5.81110613639534</v>
+        <v>0.303891</v>
       </c>
       <c r="O2">
-        <v>0.6127353212236625</v>
+        <v>0.009886476207827108</v>
       </c>
       <c r="P2">
-        <v>0.6127353212236625</v>
+        <v>0.009886476207827108</v>
       </c>
       <c r="Q2">
-        <v>61.97754109107503</v>
+        <v>4.464764985013667</v>
       </c>
       <c r="R2">
-        <v>61.97754109107503</v>
+        <v>40.182884865123</v>
       </c>
       <c r="S2">
-        <v>0.01111066820657257</v>
+        <v>0.0006936508272711665</v>
       </c>
       <c r="T2">
-        <v>0.01111066820657257</v>
+        <v>0.0006936508272711667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.6653603696731</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H3">
-        <v>10.6653603696731</v>
+        <v>132.227953</v>
       </c>
       <c r="I3">
-        <v>0.01813289983737844</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J3">
-        <v>0.01813289983737844</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.67277040068804</v>
+        <v>5.829902333333333</v>
       </c>
       <c r="N3">
-        <v>3.67277040068804</v>
+        <v>17.489707</v>
       </c>
       <c r="O3">
-        <v>0.3872646787763376</v>
+        <v>0.5689920798489169</v>
       </c>
       <c r="P3">
-        <v>0.3872646787763376</v>
+        <v>0.5689920798489169</v>
       </c>
       <c r="Q3">
-        <v>39.17141987840662</v>
+        <v>256.9586839088634</v>
       </c>
       <c r="R3">
-        <v>39.17141987840662</v>
+        <v>2312.628155179771</v>
       </c>
       <c r="S3">
-        <v>0.007022231630805866</v>
+        <v>0.03992138539568565</v>
       </c>
       <c r="T3">
-        <v>0.007022231630805866</v>
+        <v>0.03992138539568566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>536.503082646008</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H4">
-        <v>536.503082646008</v>
+        <v>132.227953</v>
       </c>
       <c r="I4">
-        <v>0.9121451430490211</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J4">
-        <v>0.9121451430490211</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.81110613639534</v>
+        <v>0.06457233333333333</v>
       </c>
       <c r="N4">
-        <v>5.81110613639534</v>
+        <v>0.193717</v>
       </c>
       <c r="O4">
-        <v>0.6127353212236625</v>
+        <v>0.006302188980758376</v>
       </c>
       <c r="P4">
-        <v>0.6127353212236625</v>
+        <v>0.006302188980758376</v>
       </c>
       <c r="Q4">
-        <v>3117.676355759234</v>
+        <v>2.846089152366778</v>
       </c>
       <c r="R4">
-        <v>3117.676355759234</v>
+        <v>25.614802371301</v>
       </c>
       <c r="S4">
-        <v>0.5589035472287455</v>
+        <v>0.0004421715592317263</v>
       </c>
       <c r="T4">
-        <v>0.5589035472287455</v>
+        <v>0.0004421715592317264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>536.503082646008</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H5">
-        <v>536.503082646008</v>
+        <v>132.227953</v>
       </c>
       <c r="I5">
-        <v>0.9121451430490211</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J5">
-        <v>0.9121451430490211</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.67277040068804</v>
+        <v>4.250245</v>
       </c>
       <c r="N5">
-        <v>3.67277040068804</v>
+        <v>12.750735</v>
       </c>
       <c r="O5">
-        <v>0.3872646787763376</v>
+        <v>0.4148192549624977</v>
       </c>
       <c r="P5">
-        <v>0.3872646787763376</v>
+        <v>0.4148192549624976</v>
       </c>
       <c r="Q5">
-        <v>1970.452641820147</v>
+        <v>187.3337320328284</v>
       </c>
       <c r="R5">
-        <v>1970.452641820147</v>
+        <v>1686.003588295455</v>
       </c>
       <c r="S5">
-        <v>0.3532415958202757</v>
+        <v>0.02910437584879256</v>
       </c>
       <c r="T5">
-        <v>0.3532415958202757</v>
+        <v>0.02910437584879255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.0088736475892</v>
+        <v>539.7636413333333</v>
       </c>
       <c r="H6">
-        <v>41.0088736475892</v>
+        <v>1619.290924</v>
       </c>
       <c r="I6">
-        <v>0.06972195711360057</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="J6">
-        <v>0.06972195711360057</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.81110613639534</v>
+        <v>0.101297</v>
       </c>
       <c r="N6">
-        <v>5.81110613639534</v>
+        <v>0.303891</v>
       </c>
       <c r="O6">
-        <v>0.6127353212236625</v>
+        <v>0.009886476207827108</v>
       </c>
       <c r="P6">
-        <v>0.6127353212236625</v>
+        <v>0.009886476207827108</v>
       </c>
       <c r="Q6">
-        <v>238.3069173001667</v>
+        <v>54.67643757614267</v>
       </c>
       <c r="R6">
-        <v>238.3069173001667</v>
+        <v>492.087938185284</v>
       </c>
       <c r="S6">
-        <v>0.04272110578834447</v>
+        <v>0.00849459182828983</v>
       </c>
       <c r="T6">
-        <v>0.04272110578834447</v>
+        <v>0.00849459182828983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>539.7636413333333</v>
+      </c>
+      <c r="H7">
+        <v>1619.290924</v>
+      </c>
+      <c r="I7">
+        <v>0.8592132980166053</v>
+      </c>
+      <c r="J7">
+        <v>0.8592132980166053</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.829902333333333</v>
+      </c>
+      <c r="N7">
+        <v>17.489707</v>
+      </c>
+      <c r="O7">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="P7">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="Q7">
+        <v>3146.769312057696</v>
+      </c>
+      <c r="R7">
+        <v>28320.92380851927</v>
+      </c>
+      <c r="S7">
+        <v>0.4888855614723155</v>
+      </c>
+      <c r="T7">
+        <v>0.4888855614723155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>539.7636413333333</v>
+      </c>
+      <c r="H8">
+        <v>1619.290924</v>
+      </c>
+      <c r="I8">
+        <v>0.8592132980166053</v>
+      </c>
+      <c r="J8">
+        <v>0.8592132980166053</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06457233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.193717</v>
+      </c>
+      <c r="O8">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="P8">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="Q8">
+        <v>34.85379776938978</v>
+      </c>
+      <c r="R8">
+        <v>313.684179924508</v>
+      </c>
+      <c r="S8">
+        <v>0.005414924578881312</v>
+      </c>
+      <c r="T8">
+        <v>0.005414924578881312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>539.7636413333333</v>
+      </c>
+      <c r="H9">
+        <v>1619.290924</v>
+      </c>
+      <c r="I9">
+        <v>0.8592132980166053</v>
+      </c>
+      <c r="J9">
+        <v>0.8592132980166053</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.250245</v>
+      </c>
+      <c r="N9">
+        <v>12.750735</v>
+      </c>
+      <c r="O9">
+        <v>0.4148192549624977</v>
+      </c>
+      <c r="P9">
+        <v>0.4148192549624976</v>
+      </c>
+      <c r="Q9">
+        <v>2294.127717758794</v>
+      </c>
+      <c r="R9">
+        <v>20647.14945982914</v>
+      </c>
+      <c r="S9">
+        <v>0.3564182201371187</v>
+      </c>
+      <c r="T9">
+        <v>0.3564182201371186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1526826666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.458048</v>
+      </c>
+      <c r="I10">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="J10">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.101297</v>
+      </c>
+      <c r="N10">
+        <v>0.303891</v>
+      </c>
+      <c r="O10">
+        <v>0.009886476207827108</v>
+      </c>
+      <c r="P10">
+        <v>0.009886476207827108</v>
+      </c>
+      <c r="Q10">
+        <v>0.01546629608533334</v>
+      </c>
+      <c r="R10">
+        <v>0.139196664768</v>
+      </c>
+      <c r="S10">
+        <v>2.402860869591646E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.402860869591646E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>41.0088736475892</v>
-      </c>
-      <c r="H7">
-        <v>41.0088736475892</v>
-      </c>
-      <c r="I7">
-        <v>0.06972195711360057</v>
-      </c>
-      <c r="J7">
-        <v>0.06972195711360057</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.67277040068804</v>
-      </c>
-      <c r="N7">
-        <v>3.67277040068804</v>
-      </c>
-      <c r="O7">
-        <v>0.3872646787763376</v>
-      </c>
-      <c r="P7">
-        <v>0.3872646787763376</v>
-      </c>
-      <c r="Q7">
-        <v>150.6161772984214</v>
-      </c>
-      <c r="R7">
-        <v>150.6161772984214</v>
-      </c>
-      <c r="S7">
-        <v>0.02700085132525612</v>
-      </c>
-      <c r="T7">
-        <v>0.02700085132525612</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1526826666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.458048</v>
+      </c>
+      <c r="I11">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="J11">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.829902333333333</v>
+      </c>
+      <c r="N11">
+        <v>17.489707</v>
+      </c>
+      <c r="O11">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="P11">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="Q11">
+        <v>0.8901250346595555</v>
+      </c>
+      <c r="R11">
+        <v>8.011125311936</v>
+      </c>
+      <c r="S11">
+        <v>0.0001382908100961302</v>
+      </c>
+      <c r="T11">
+        <v>0.0001382908100961302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1526826666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.458048</v>
+      </c>
+      <c r="I12">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="J12">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06457233333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.193717</v>
+      </c>
+      <c r="O12">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="P12">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="Q12">
+        <v>0.009859076046222222</v>
+      </c>
+      <c r="R12">
+        <v>0.088731684416</v>
+      </c>
+      <c r="S12">
+        <v>1.531716961261389E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.531716961261389E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1526826666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.458048</v>
+      </c>
+      <c r="I13">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="J13">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.250245</v>
+      </c>
+      <c r="N13">
+        <v>12.750735</v>
+      </c>
+      <c r="O13">
+        <v>0.4148192549624977</v>
+      </c>
+      <c r="P13">
+        <v>0.4148192549624976</v>
+      </c>
+      <c r="Q13">
+        <v>0.6489387405866667</v>
+      </c>
+      <c r="R13">
+        <v>5.84044866528</v>
+      </c>
+      <c r="S13">
+        <v>0.0001008198406337557</v>
+      </c>
+      <c r="T13">
+        <v>0.0001008198406337557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H14">
+        <v>132.643492</v>
+      </c>
+      <c r="I14">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J14">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.101297</v>
+      </c>
+      <c r="N14">
+        <v>0.303891</v>
+      </c>
+      <c r="O14">
+        <v>0.009886476207827108</v>
+      </c>
+      <c r="P14">
+        <v>0.009886476207827108</v>
+      </c>
+      <c r="Q14">
+        <v>4.478795936374667</v>
+      </c>
+      <c r="R14">
+        <v>40.30916342737201</v>
+      </c>
+      <c r="S14">
+        <v>0.0006958306913965186</v>
+      </c>
+      <c r="T14">
+        <v>0.0006958306913965187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H15">
+        <v>132.643492</v>
+      </c>
+      <c r="I15">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J15">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.829902333333333</v>
+      </c>
+      <c r="N15">
+        <v>17.489707</v>
+      </c>
+      <c r="O15">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="P15">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="Q15">
+        <v>257.7662011707604</v>
+      </c>
+      <c r="R15">
+        <v>2319.895810536844</v>
+      </c>
+      <c r="S15">
+        <v>0.04004684217081957</v>
+      </c>
+      <c r="T15">
+        <v>0.04004684217081958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H16">
+        <v>132.643492</v>
+      </c>
+      <c r="I16">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J16">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06457233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.193717</v>
+      </c>
+      <c r="O16">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="P16">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="Q16">
+        <v>2.855033259973778</v>
+      </c>
+      <c r="R16">
+        <v>25.695299339764</v>
+      </c>
+      <c r="S16">
+        <v>0.0004435611256840755</v>
+      </c>
+      <c r="T16">
+        <v>0.0004435611256840756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H17">
+        <v>132.643492</v>
+      </c>
+      <c r="I17">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J17">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.250245</v>
+      </c>
+      <c r="N17">
+        <v>12.750735</v>
+      </c>
+      <c r="O17">
+        <v>0.4148192549624977</v>
+      </c>
+      <c r="P17">
+        <v>0.4148192549624976</v>
+      </c>
+      <c r="Q17">
+        <v>187.9224462185134</v>
+      </c>
+      <c r="R17">
+        <v>1691.30201596662</v>
+      </c>
+      <c r="S17">
+        <v>0.02919583913595266</v>
+      </c>
+      <c r="T17">
+        <v>0.02919583913595266</v>
       </c>
     </row>
   </sheetData>
